--- a/用户导入模板.xlsx
+++ b/用户导入模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\jwkjwhuiping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A72AF-B2D5-4CDF-B821-0EAED1E053F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="465" windowWidth="18000" windowHeight="11010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
@@ -50,14 +56,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制造</t>
+    <t>航天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,6 +116,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,23 +410,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +450,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -464,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -487,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -510,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -533,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -553,98 +562,6 @@
         <v>88888888</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>88888888</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>88888888</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>88888888</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>88888888</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
